--- a/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/42/stop-words-topk-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,63 +40,69 @@
     <t>name</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>illegal</t>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fucking</t>
   </si>
   <si>
     <t>uncomfortable</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>shit</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>false</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>bad</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -118,46 +124,52 @@
     <t>better</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>much</t>
+  </si>
+  <si>
+    <t>recommend</t>
   </si>
   <si>
     <t>really</t>
@@ -166,27 +178,24 @@
     <t>please</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
     <t>watching</t>
   </si>
   <si>
@@ -197,9 +206,6 @@
   </si>
   <si>
     <t>’</t>
-  </si>
-  <si>
-    <t>watched</t>
   </si>
   <si>
     <t>positive</t>
@@ -568,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -679,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9666666666666667</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,16 +706,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9333333333333333</v>
+        <v>0.9</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9</v>
@@ -779,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.8620689655172413</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="M6">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +835,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,16 +856,16 @@
         <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.7466666666666667</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.775</v>
+        <v>0.875</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.7368421052631579</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.68</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7101449275362319</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K10">
         <v>0.6666666666666666</v>
@@ -1029,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7058823529411765</v>
+        <v>0.8125</v>
       </c>
       <c r="C11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.631578947368421</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.8</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.5757575757575758</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,38 +1135,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13">
+        <v>0.5925925925925926</v>
+      </c>
+      <c r="L13">
         <v>16</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>16</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>18</v>
-      </c>
-      <c r="M13">
-        <v>18</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1171,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.625</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.4814814814814815</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6170212765957447</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.4791666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.3260869565217391</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1335,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5384615384615384</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1353,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.3220338983050847</v>
+        <v>0.3114754098360656</v>
       </c>
       <c r="L17">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="M17">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>40</v>
+        <v>756</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,7 +1385,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5357142857142857</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1397,19 +1403,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.3096539162112932</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L18">
-        <v>340</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>340</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>758</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1435,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5357142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1453,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.2777777777777778</v>
+        <v>0.2622950819672131</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5142857142857142</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1503,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K20">
-        <v>0.2459016393442623</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="L20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M20">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1553,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K21">
-        <v>0.2105263157894737</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>75</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1585,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2051282051282051</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K22">
-        <v>0.2054794520547945</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="L22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,64 +1635,88 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.0547945205479452</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>15</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.2210526315789474</v>
+      </c>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>21</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>65</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.2191780821917808</v>
+      </c>
+      <c r="L24">
         <v>16</v>
       </c>
-      <c r="D23">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>0.3</v>
-      </c>
-      <c r="F23">
-        <v>0.7</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>276</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K23">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="L23">
+      <c r="M24">
         <v>16</v>
       </c>
-      <c r="M23">
-        <v>16</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K24">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="L24">
-        <v>12</v>
-      </c>
-      <c r="M24">
-        <v>12</v>
-      </c>
       <c r="N24">
         <v>1</v>
       </c>
@@ -1697,21 +1727,45 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.06164383561643835</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0.28</v>
+      </c>
+      <c r="F25">
+        <v>0.72</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>274</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K25">
-        <v>0.1690140845070423</v>
+        <v>0.1830985915492958</v>
       </c>
       <c r="L25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1723,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.1236749116607774</v>
+        <v>0.0962962962962963</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1749,47 +1803,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>248</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.110105580693816</v>
+        <v>0.0948905109489051</v>
       </c>
       <c r="L27">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M27">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>590</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.1092592592592593</v>
+        <v>0.09487951807228916</v>
       </c>
       <c r="L28">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M28">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1801,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>481</v>
+        <v>601</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K29">
-        <v>0.07936507936507936</v>
+        <v>0.08888888888888889</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1827,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.07331378299120235</v>
+        <v>0.07420494699646643</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1853,99 +1907,99 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>316</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.06168831168831169</v>
+        <v>0.07058823529411765</v>
       </c>
       <c r="L31">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N31">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>578</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.06113033448673587</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="L32">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="N32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>1628</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.05897435897435897</v>
+        <v>0.06163594470046083</v>
       </c>
       <c r="L33">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="M33">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>734</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K34">
-        <v>0.04861111111111111</v>
+        <v>0.03841229193341869</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1957,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>274</v>
+        <v>751</v>
       </c>
     </row>
   </sheetData>
